--- a/biology/Origine et évolution du vivant/Ovotestis/Ovotestis.xlsx
+++ b/biology/Origine et évolution du vivant/Ovotestis/Ovotestis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un ovotestis (de ovum, œuf, et testiculus, testicule) est une gonade ayant à la fois les caractéristiques d'un testicule et d'un ovaire[1],[2],[3]. 
-Chez l'être humain, les ovotestis sont une variation anatomique peu fréquente associée à la dysgénésie gonadique, qui est une forme d'intersexuation[4],[5]. 
+Un ovotestis (de ovum, œuf, et testiculus, testicule) est une gonade ayant à la fois les caractéristiques d'un testicule et d'un ovaire. 
+Chez l'être humain, les ovotestis sont une variation anatomique peu fréquente associée à la dysgénésie gonadique, qui est une forme d'intersexuation,. 
 Chez les invertébrés qui sont naturellement hermaphrodites, tels que certains gastéropodes, l'ovotestis est un organe commun de l'anatomie reproductive.
 </t>
         </is>
@@ -514,16 +526,18 @@
           <t>Chez l'être humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'être humain, la présence d'ovotestis est un cas d'intersexuation causée par une variation du développement sexuel appelée dysgénésie gonadique[4],[5]  :
-Chimérisme ou mosaïcisme, généralement de formule chromosomique 46,XX/46,XY[6] ou, moins souvent, 46,XY/47,XXY[7] ;
-Chez des personnes ayant des chromosomes 46,XX[8] ou 46,XY, il peut être dû à un fonctionnement inhabituel ou à une mutation du gène SRY, responsable de la différenciation sexuelle chez le fœtus[4] ;
-Plus rarement, d'autres variations chromosomiques : 47,XXY, 47,XYY, 45,XO, 46, X del X[9].
-L'ovotestis est la gonade la plus fréquemment observées dans les cas d'« hermaphrodisme vrai ». L'observation d'un ovotestis ne permet pas de présumer de la nature de l'autre gonade. Il est composé de tissus testiculaires et de tissus ovariens, dans des proportions variant d'un extrême à l'autre, et nettement séparés[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'être humain, la présence d'ovotestis est un cas d'intersexuation causée par une variation du développement sexuel appelée dysgénésie gonadique,  :
+Chimérisme ou mosaïcisme, généralement de formule chromosomique 46,XX/46,XY ou, moins souvent, 46,XY/47,XXY ;
+Chez des personnes ayant des chromosomes 46,XX ou 46,XY, il peut être dû à un fonctionnement inhabituel ou à une mutation du gène SRY, responsable de la différenciation sexuelle chez le fœtus ;
+Plus rarement, d'autres variations chromosomiques : 47,XXY, 47,XYY, 45,XO, 46, X del X.
+L'ovotestis est la gonade la plus fréquemment observées dans les cas d'« hermaphrodisme vrai ». L'observation d'un ovotestis ne permet pas de présumer de la nature de l'autre gonade. Il est composé de tissus testiculaires et de tissus ovariens, dans des proportions variant d'un extrême à l'autre, et nettement séparés.
 Il peut être trouvé en position ovarienne, dans le pli labioscrotal ou dans l'anneau inguinal interne. Sa position est corrélée avec sa teneur en tissus testiculaires : plus il y a de tissus testiculaires, plus il est susceptible de se trouver en position basse.
-Dans l'ovotestis, l'apparence  des tissus ovariens est normale dans les 3/4 des cas, l'anomalie principale étant une réduction du nombre de follicules primordiaux chez l'enfant. Dans un cas sur deux, l'ovotestis montre des signes d'ovulation. En comparaison, les tissus testiculaires de l'ovotestis sont généralement anormaux. la spermatogonie et la Spermatogenèse n'y ont jamais été observés[9].
-Face aux cas d'enfants intersexes, plusieurs opinions existent quant au comportement adéquat à adopter. L'usage médical consiste généralement à mettre en place un traitement hormonal et des opérations pour faire correspondre l'enfant à un sexe défini, masculin ou féminin[10], tandis que les associations de personnes intersexes arguent que ces opérations sont des atteintes à l'intégrité physique des enfants, qui sont médicalement inutiles et occasionnent des traumatismes[11].
+Dans l'ovotestis, l'apparence  des tissus ovariens est normale dans les 3/4 des cas, l'anomalie principale étant une réduction du nombre de follicules primordiaux chez l'enfant. Dans un cas sur deux, l'ovotestis montre des signes d'ovulation. En comparaison, les tissus testiculaires de l'ovotestis sont généralement anormaux. la spermatogonie et la Spermatogenèse n'y ont jamais été observés.
+Face aux cas d'enfants intersexes, plusieurs opinions existent quant au comportement adéquat à adopter. L'usage médical consiste généralement à mettre en place un traitement hormonal et des opérations pour faire correspondre l'enfant à un sexe défini, masculin ou féminin, tandis que les associations de personnes intersexes arguent que ces opérations sont des atteintes à l'intégrité physique des enfants, qui sont médicalement inutiles et occasionnent des traumatismes.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Recherche génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diverses expériences ont été menées chez la souris autour du gène Sox9, qui est déclenché par le gène-architecte SRY du chromosome Y[12],[13]. Les ovotestis chez la souris sont structurées de telle manière que le centre est un tissu testiculaire, tandis que les pôles sont constitués de tissu ovarien.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses expériences ont été menées chez la souris autour du gène Sox9, qui est déclenché par le gène-architecte SRY du chromosome Y,. Les ovotestis chez la souris sont structurées de telle manière que le centre est un tissu testiculaire, tandis que les pôles sont constitués de tissu ovarien.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Chez les gastéropodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ovotestis, ou glande hermaphroditique (latin : glandula hermaphroditica)[14], est un organe commun du système reproducteur de certains gastéropodes, notamment chez des espèces telles que l'escargot de terre Helix aspersa[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ovotestis, ou glande hermaphroditique (latin : glandula hermaphroditica), est un organe commun du système reproducteur de certains gastéropodes, notamment chez des espèces telles que l'escargot de terre Helix aspersa.
 </t>
         </is>
       </c>
